--- a/par_IAV.xlsx
+++ b/par_IAV.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -93,6 +93,9 @@
   <si>
     <t>dM</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baseline number</t>
   </si>
 </sst>
 </file>
@@ -227,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -257,6 +260,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2988,6 +2994,266 @@
         <a:xfrm>
           <a:off x="0" y="13449300"/>
           <a:ext cx="142875" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="图片 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15392400"/>
+          <a:ext cx="209550" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="图片 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="16002000"/>
+          <a:ext cx="190500" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图片 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="16211550"/>
+          <a:ext cx="161925" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="图片 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="16421100"/>
+          <a:ext cx="238125" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5942,10 +6208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6425,6 +6691,66 @@
       </c>
       <c r="F31">
         <v>0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>10000</v>
+      </c>
+      <c r="E32">
+        <v>100000</v>
+      </c>
+      <c r="F32">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33">
+        <v>10000</v>
+      </c>
+      <c r="E33">
+        <v>100000</v>
+      </c>
+      <c r="F33">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34">
+        <v>10000</v>
+      </c>
+      <c r="E34">
+        <v>1000000</v>
+      </c>
+      <c r="F34">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35">
+        <v>10000</v>
+      </c>
+      <c r="F35">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/par_IAV.xlsx
+++ b/par_IAV.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -95,7 +95,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Baseline number</t>
+    <t xml:space="preserve">K_TI </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -230,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -260,9 +261,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -681,13 +679,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="10" name="图片 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -717,8 +715,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="2162175"/>
-          <a:ext cx="295275" cy="180975"/>
+          <a:off x="0" y="3695700"/>
+          <a:ext cx="238125" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -752,7 +750,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPr id="11" name="图片 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -782,7 +780,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1371600" y="2162175"/>
+          <a:off x="1371600" y="3695700"/>
           <a:ext cx="600075" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -811,13 +809,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPr id="12" name="图片 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -847,8 +845,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="3695700"/>
-          <a:ext cx="238125" cy="180975"/>
+          <a:off x="0" y="5229225"/>
+          <a:ext cx="219075" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -882,7 +880,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPr id="13" name="图片 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -912,7 +910,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1371600" y="3695700"/>
+          <a:off x="1371600" y="5229225"/>
           <a:ext cx="600075" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -941,13 +939,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPr id="14" name="图片 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -977,8 +975,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="5229225"/>
-          <a:ext cx="219075" cy="180975"/>
+          <a:off x="0" y="6191250"/>
+          <a:ext cx="209550" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1012,7 +1010,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPr id="15" name="图片 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1042,7 +1040,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1371600" y="5229225"/>
+          <a:off x="1371600" y="6191250"/>
           <a:ext cx="600075" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1071,13 +1069,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPr id="16" name="图片 15"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1107,8 +1105,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="6191250"/>
-          <a:ext cx="209550" cy="180975"/>
+          <a:off x="0" y="7343775"/>
+          <a:ext cx="266700" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1142,136 +1140,6 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1371600" y="6191250"/>
-          <a:ext cx="600075" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="7343775"/>
-          <a:ext cx="266700" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
         <xdr:cNvPr id="17" name="图片 16"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -1326,13 +1194,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1343,7 +1211,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -1391,13 +1259,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1408,7 +1276,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -1456,78 +1324,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="图片 19"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="9077325"/>
-          <a:ext cx="266700" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1538,7 +1341,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -1586,13 +1389,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1603,7 +1406,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -1651,13 +1454,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1668,7 +1471,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -1716,13 +1519,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1733,7 +1536,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -1781,13 +1584,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1798,7 +1601,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -1846,78 +1649,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="图片 25"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="10658475"/>
-          <a:ext cx="285750" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1928,7 +1666,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -1976,13 +1714,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1993,7 +1731,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -2041,13 +1779,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2058,7 +1796,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -2106,13 +1844,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2123,7 +1861,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -2171,78 +1909,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="图片 30"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="12239625"/>
-          <a:ext cx="304800" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2253,7 +1926,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -2301,13 +1974,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2318,7 +1991,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -2366,13 +2039,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2383,7 +2056,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -2431,13 +2104,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2448,7 +2121,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -2496,6 +2169,201 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="13239750"/>
+          <a:ext cx="190500" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="13449300"/>
+          <a:ext cx="142875" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1371600" y="13449300"/>
+          <a:ext cx="228600" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -2507,37 +2375,37 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="图片 35"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="13239750"/>
+        <xdr:cNvPr id="39" name="图片 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="14030325"/>
           <a:ext cx="190500" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2559,6 +2427,71 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1371600" y="14030325"/>
+          <a:ext cx="228600" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
@@ -2566,44 +2499,44 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="图片 36"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="13449300"/>
-          <a:ext cx="142875" cy="180975"/>
+        <xdr:cNvPr id="41" name="图片 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="14420850"/>
+          <a:ext cx="171450" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2637,266 +2570,6 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="图片 37"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1371600" y="13449300"/>
-          <a:ext cx="228600" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="图片 38"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="14030325"/>
-          <a:ext cx="190500" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="图片 39"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1371600" y="14030325"/>
-          <a:ext cx="228600" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="图片 40"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="14420850"/>
-          <a:ext cx="171450" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
         <xdr:cNvPr id="42" name="图片 41"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -2951,13 +2624,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2968,7 +2641,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -2994,266 +2667,6 @@
         <a:xfrm>
           <a:off x="0" y="13449300"/>
           <a:ext cx="142875" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="图片 43"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="15392400"/>
-          <a:ext cx="209550" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="图片 44"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="16002000"/>
-          <a:ext cx="190500" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="图片 45"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="16211550"/>
-          <a:ext cx="161925" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="图片 46"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="16421100"/>
-          <a:ext cx="238125" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6208,10 +5621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6251,7 +5664,7 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="E2" s="10">
-        <v>1E-3</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="F2">
         <v>9.9999999999999995E-7</v>
@@ -6280,19 +5693,19 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E4">
+        <v>0.1</v>
+      </c>
+      <c r="F4">
         <v>1E-3</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="120.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="10">
@@ -6305,10 +5718,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="120.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="10">
@@ -6318,63 +5731,61 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F6" s="10">
-        <v>9.9999999999999995E-8</v>
+        <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="10">
-        <v>1.0000000000000001E-9</v>
+        <v>1E-3</v>
       </c>
       <c r="E7" s="10">
-        <v>1.0000000000000001E-5</v>
+        <v>10</v>
       </c>
       <c r="F7" s="10">
-        <v>9.9999999999999995E-8</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="10">
-        <v>1.0000000000000001E-9</v>
+        <v>9.9999999999999994E-12</v>
       </c>
       <c r="E8" s="10">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F8" s="10">
-        <v>9.9999999999999995E-8</v>
+        <v>1.0000000000000001E-9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="10">
-        <v>9.9999999999999994E-12</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1.0000000000000001E-9</v>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>100000</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="7"/>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10">
         <v>100</v>
       </c>
@@ -6388,7 +5799,7 @@
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
+      <c r="C11" s="6"/>
       <c r="D11">
         <v>100</v>
       </c>
@@ -6418,27 +5829,29 @@
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13">
-        <v>100</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E13">
-        <v>100000</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1000</v>
+        <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>100000</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1000</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -6446,20 +5859,18 @@
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>100000</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1000</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16">
         <v>1</v>
@@ -6471,32 +5882,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="D18">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>10000000</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -6504,37 +5919,33 @@
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>10000000</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>100000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>10000000</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>100000</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21">
         <v>1000</v>
       </c>
@@ -6559,8 +5970,8 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23">
@@ -6570,11 +5981,13 @@
         <v>10000000</v>
       </c>
       <c r="F23">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24">
@@ -6587,52 +6000,58 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7"/>
       <c r="D25">
-        <v>1000</v>
+        <v>1E-4</v>
       </c>
       <c r="E25">
-        <v>10000000</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>100000</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="C26" s="7"/>
       <c r="D26">
-        <v>1000</v>
+        <v>1E-4</v>
       </c>
       <c r="E26">
-        <v>10000000</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>100000</v>
+        <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+    <row r="27" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="7"/>
       <c r="D27">
-        <v>1000</v>
+        <v>1E-4</v>
       </c>
       <c r="E27">
-        <v>10000000</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>100000</v>
+        <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28">
@@ -6643,114 +6062,6 @@
       </c>
       <c r="F28">
         <v>0.01</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29">
-        <v>1E-4</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30">
-        <v>1E-4</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31">
-        <v>1E-4</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32">
-        <v>10000</v>
-      </c>
-      <c r="E32">
-        <v>100000</v>
-      </c>
-      <c r="F32">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33">
-        <v>10000</v>
-      </c>
-      <c r="E33">
-        <v>100000</v>
-      </c>
-      <c r="F33">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34">
-        <v>10000</v>
-      </c>
-      <c r="E34">
-        <v>1000000</v>
-      </c>
-      <c r="F34">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35">
-        <v>100</v>
-      </c>
-      <c r="E35">
-        <v>10000</v>
-      </c>
-      <c r="F35">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/par_IAV.xlsx
+++ b/par_IAV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -5623,8 +5623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A30" activeCellId="1" sqref="A29:XFD29 A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6076,8 +6076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/par_IAV.xlsx
+++ b/par_IAV.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -231,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -261,6 +261,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5623,8 +5626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" activeCellId="1" sqref="A29:XFD29 A30:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6053,7 +6056,7 @@
       <c r="B28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="11"/>
       <c r="D28">
         <v>1E-4</v>
       </c>
@@ -6076,7 +6079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
